--- a/Unidades.xlsx
+++ b/Unidades.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
     </row>
@@ -469,7 +469,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARILLO</t>
         </is>
       </c>
     </row>
@@ -478,11 +478,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VERDE</t>
+          <t>ROSA</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>VERDE</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>ROSA</t>
         </is>
       </c>
     </row>
@@ -530,11 +530,11 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AMARILLO</t>
         </is>
       </c>
     </row>
@@ -547,7 +547,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AMARILLO</t>
+          <t>ROSA</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>VERDE</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,72 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>AMARILLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>29</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>26</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>AMARILLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>29</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ROJO</t>
         </is>
       </c>
     </row>

--- a/Unidades.xlsx
+++ b/Unidades.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,6 +642,45 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>26</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>26</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Unidades.xlsx
+++ b/Unidades.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,6 +681,19 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>26</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
